--- a/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200525.xlsx
+++ b/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200525.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\hubei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DA086A-E84C-47F1-8FC7-DE08DF7A264B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383548EC-1819-45C4-8282-FF9F37A04D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,7 +622,7 @@
   <dimension ref="A1:AT21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="D3" sqref="D3:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -778,10 +778,10 @@
         <v>46</v>
       </c>
       <c r="C2" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D2" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
@@ -843,10 +843,10 @@
         <v>46</v>
       </c>
       <c r="C3" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D3" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E3" t="s">
         <v>47</v>
@@ -908,10 +908,10 @@
         <v>46</v>
       </c>
       <c r="C4" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D4" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E4" t="s">
         <v>47</v>
@@ -973,10 +973,10 @@
         <v>46</v>
       </c>
       <c r="C5" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D5" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E5" t="s">
         <v>47</v>
@@ -1038,10 +1038,10 @@
         <v>46</v>
       </c>
       <c r="C6" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D6" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
@@ -1103,10 +1103,10 @@
         <v>46</v>
       </c>
       <c r="C7" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D7" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E7" t="s">
         <v>47</v>
@@ -1168,10 +1168,10 @@
         <v>46</v>
       </c>
       <c r="C8" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D8" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E8" t="s">
         <v>47</v>
@@ -1233,10 +1233,10 @@
         <v>46</v>
       </c>
       <c r="C9" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D9" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E9" t="s">
         <v>47</v>
@@ -1298,10 +1298,10 @@
         <v>46</v>
       </c>
       <c r="C10" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D10" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E10" t="s">
         <v>47</v>
@@ -1363,10 +1363,10 @@
         <v>46</v>
       </c>
       <c r="C11" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D11" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E11" t="s">
         <v>47</v>
@@ -1428,10 +1428,10 @@
         <v>46</v>
       </c>
       <c r="C12" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D12" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E12" t="s">
         <v>47</v>
@@ -1493,10 +1493,10 @@
         <v>46</v>
       </c>
       <c r="C13" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D13" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E13" t="s">
         <v>47</v>
@@ -1558,10 +1558,10 @@
         <v>46</v>
       </c>
       <c r="C14" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D14" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E14" t="s">
         <v>47</v>
@@ -1623,10 +1623,10 @@
         <v>46</v>
       </c>
       <c r="C15" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D15" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E15" t="s">
         <v>47</v>
@@ -1688,10 +1688,10 @@
         <v>46</v>
       </c>
       <c r="C16" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D16" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E16" t="s">
         <v>47</v>
@@ -1753,10 +1753,10 @@
         <v>46</v>
       </c>
       <c r="C17" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D17" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E17" t="s">
         <v>47</v>
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="C18" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D18" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E18" t="s">
         <v>47</v>
@@ -1880,10 +1880,10 @@
         <v>46</v>
       </c>
       <c r="C19" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D19" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E19" t="s">
         <v>47</v>
@@ -1936,10 +1936,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D20" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E20" t="s">
         <v>47</v>
@@ -2001,10 +2001,10 @@
         <v>73</v>
       </c>
       <c r="C21" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D21" s="1">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="E21" t="s">
         <v>47</v>
